--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T23:50:16+00:00</t>
+    <t>2021-09-14T04:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T04:26:25+00:00</t>
+    <t>2021-09-16T21:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from BW MFL Facility Co" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from BW MFL Facility " r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T21:56:02+00:00</t>
+    <t>2022-01-27T20:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:53:37+00:00</t>
+    <t>2022-01-27T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:03:35+00:00</t>
+    <t>2022-01-27T21:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:13:11+00:00</t>
+    <t>2022-01-27T21:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:19:29+00:00</t>
+    <t>2022-01-27T21:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:25:27+00:00</t>
+    <t>2022-01-27T21:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:29:22+00:00</t>
+    <t>2022-01-27T21:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:47:10+00:00</t>
+    <t>2022-01-27T21:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:37+00:00</t>
+    <t>2022-01-27T21:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:46+00:00</t>
+    <t>2022-02-05T00:41:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-mfl-facility-code-vs.xlsx
+++ b/ValueSet-bw-mfl-facility-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-05T00:41:59+00:00</t>
+    <t>2022-02-05T01:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
